--- a/FileFolder/Keywords.xlsx
+++ b/FileFolder/Keywords.xlsx
@@ -4,22 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Search" sheetId="2" r:id="rId2"/>
     <sheet name="Cart" sheetId="3" r:id="rId3"/>
+    <sheet name="BYOC" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
-  <si>
-    <t>Keyword</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>Object</t>
   </si>
@@ -120,9 +118,6 @@
     <t>//button[contains(@class,'checkout')]</t>
   </si>
   <si>
-    <t>html/body/div[4]/div[1]/div[1]/div[2]/div[1]/ul/li[3]/a/span[1]</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -133,13 +128,97 @@
   </si>
   <si>
     <t>Operation</t>
+  </si>
+  <si>
+    <t>buildYourOwnComputer</t>
+  </si>
+  <si>
+    <t>Build your own computer</t>
+  </si>
+  <si>
+    <t>//div[@class='attributes']/dl/dd[1]/select</t>
+  </si>
+  <si>
+    <t>//div[@class='attributes']/dl/dd[2]/select</t>
+  </si>
+  <si>
+    <t>SelectDropdownValue</t>
+  </si>
+  <si>
+    <t>processor</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>SelectCheckboxValue</t>
+  </si>
+  <si>
+    <t>2.2 GHz Intel Pentium Dual-Core E2200</t>
+  </si>
+  <si>
+    <t>hdd</t>
+  </si>
+  <si>
+    <t>SelectRadiobuttonValue</t>
+  </si>
+  <si>
+    <t>CheckText</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>.//*[@id='product-details-form']/div/div[2]/div[1]/div/div/div[3]/div/span</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>software1</t>
+  </si>
+  <si>
+    <t>software2</t>
+  </si>
+  <si>
+    <t>4GB [+$20.00]</t>
+  </si>
+  <si>
+    <t>//div[@class='attributes']/dl/dd[3]/ul/li</t>
+  </si>
+  <si>
+    <t>//li/label[contains(text(),'400 GB')]//preceding-sibling::input</t>
+  </si>
+  <si>
+    <t>400 GB</t>
+  </si>
+  <si>
+    <t>Vista Premium</t>
+  </si>
+  <si>
+    <t>Microsoft Office</t>
+  </si>
+  <si>
+    <t>Acrobat Reader</t>
+  </si>
+  <si>
+    <t>addToCart</t>
+  </si>
+  <si>
+    <t>//input[contains(@class,'add-to-cart-button')]</t>
+  </si>
+  <si>
+    <t>//li[@id='topcartlink']/a/span[contains(text(),'cart')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,13 +230,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,11 +256,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,117 +581,117 @@
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +709,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,69 +718,69 @@
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +793,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,56 +802,252 @@
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="str">
+        <f>CONCATENATE("//li/label[contains(text(),'",E5,  "')]//preceding-sibling::input")</f>
+        <v>//li/label[contains(text(),'400 GB')]//preceding-sibling::input</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ref="D6:D8" si="0">CONCATENATE("//li/label[contains(text(),'",E6,  "')]//preceding-sibling::input")</f>
+        <v>//li/label[contains(text(),'Vista Premium')]//preceding-sibling::input</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>//li/label[contains(text(),'Microsoft Office')]//preceding-sibling::input</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>//li/label[contains(text(),'Acrobat Reader')]//preceding-sibling::input</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>